--- a/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="249">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20240426120000</t>
+    <t>20250425120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-26T12:00:00+01:00</t>
+    <t>2025-04-25T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,6 +73,12 @@
     <t>Agence du Numérique en Santé (ANS) - 2-10 Rue d'Oradour-sur-Glane, 75015 Paris</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -142,6 +148,36 @@
     <t>Date de fin d'exploitation d'un code concept</t>
   </si>
   <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -175,7 +211,7 @@
     <t>10</t>
   </si>
   <si>
-    <t>Socio-esthéticienne</t>
+    <t>Socio-esthéticien</t>
   </si>
   <si>
     <t>11</t>
@@ -199,7 +235,7 @@
     <t>14</t>
   </si>
   <si>
-    <t>Puéricultrice</t>
+    <t>Puériculteur</t>
   </si>
   <si>
     <t>17</t>
@@ -283,7 +319,7 @@
     <t>45</t>
   </si>
   <si>
-    <t>Assistant(e) de soins en gérontologie</t>
+    <t>Assistant de soins en gérontologie</t>
   </si>
   <si>
     <t>47</t>
@@ -858,7 +894,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -958,65 +994,73 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s" s="2">
         <v>29</v>
       </c>
+      <c r="B19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
         <v>30</v>
       </c>
-      <c r="B20" s="2"/>
+      <c r="B20" t="s" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1025,7 +1069,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1033,52 +1077,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D3" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>37</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1096,1167 +1182,1167 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>44</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>160</v>
+        <v>172</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>162</v>
+        <v>174</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>187</v>
+        <v>199</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>189</v>
+        <v>201</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="D76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="D77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="D78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="D80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="D81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="D82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="D83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="D84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="D85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="D86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="D88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="D90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="D91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="D92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="D93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="D94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="D95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="D97" s="2"/>
     </row>

--- a/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="253">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250425120000</t>
+    <t>20250623120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-25T12:00:00+01:00</t>
+    <t>2025-06-23T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
     <t>Count</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
     <t>Code</t>
   </si>
   <si>
@@ -580,9 +583,6 @@
     <t>Neurochirurgien</t>
   </si>
   <si>
-    <t>98</t>
-  </si>
-  <si>
     <t>Neurologue</t>
   </si>
   <si>
@@ -761,6 +761,18 @@
   </si>
   <si>
     <t>Conseiller conjugal et familial</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>Ergonome</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>Psychologue du travail</t>
   </si>
 </sst>
 </file>
@@ -1060,7 +1072,9 @@
       <c r="A22" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="B22" s="2"/>
+      <c r="B22" t="s" s="2">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -1077,94 +1091,94 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>21</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1188,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D97"/>
+  <dimension ref="A1:D99"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1182,804 +1196,804 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>188</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>189</v>
@@ -1988,7 +2002,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>190</v>
@@ -2000,7 +2014,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>192</v>
@@ -2012,7 +2026,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>194</v>
@@ -2024,7 +2038,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>196</v>
@@ -2036,7 +2050,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>198</v>
@@ -2048,7 +2062,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>200</v>
@@ -2060,7 +2074,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>202</v>
@@ -2072,19 +2086,19 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>204</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>205</v>
@@ -2096,7 +2110,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>207</v>
@@ -2108,7 +2122,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>209</v>
@@ -2120,7 +2134,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>211</v>
@@ -2132,7 +2146,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>213</v>
@@ -2144,7 +2158,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>215</v>
@@ -2156,7 +2170,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>217</v>
@@ -2168,7 +2182,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>219</v>
@@ -2180,7 +2194,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>221</v>
@@ -2192,7 +2206,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>223</v>
@@ -2204,7 +2218,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B86" t="s" s="2">
         <v>225</v>
@@ -2216,7 +2230,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B87" t="s" s="2">
         <v>227</v>
@@ -2228,7 +2242,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>229</v>
@@ -2240,7 +2254,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B89" t="s" s="2">
         <v>231</v>
@@ -2252,7 +2266,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B90" t="s" s="2">
         <v>233</v>
@@ -2264,7 +2278,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B91" t="s" s="2">
         <v>235</v>
@@ -2276,7 +2290,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B92" t="s" s="2">
         <v>237</v>
@@ -2288,7 +2302,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>239</v>
@@ -2300,7 +2314,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>241</v>
@@ -2312,7 +2326,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s" s="2">
         <v>243</v>
@@ -2324,7 +2338,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B96" t="s" s="2">
         <v>245</v>
@@ -2336,7 +2350,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B97" t="s" s="2">
         <v>247</v>
@@ -2345,6 +2359,30 @@
         <v>248</v>
       </c>
       <c r="D97" s="2"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="D98" s="2"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="D99" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="255">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250623120000</t>
+    <t>20250710120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T12:00:00+01:00</t>
+    <t>2025-07-10T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,477 +118,477 @@
     <t>Count</t>
   </si>
   <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Uri</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>dateValid</t>
+  </si>
+  <si>
+    <t>date de validité d'un code concept</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>dateMaj</t>
+  </si>
+  <si>
+    <t>Date de mise à jour d'un code concept</t>
+  </si>
+  <si>
+    <t>dateFin</t>
+  </si>
+  <si>
+    <t>Date de fin d'exploitation d'un code concept</t>
+  </si>
+  <si>
+    <t>deprecationDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
+  </si>
+  <si>
+    <t>Date Concept was deprecated</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#status</t>
+  </si>
+  <si>
+    <t>A property that indicates the status of the concept.</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>retirementDate</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
+  </si>
+  <si>
+    <t>Date Concept was retired</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Definition</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>Art-thérapeute</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>Neuropsychologue</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>Médiateur de santé pair</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Socio-esthéticien</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Enseignant du 1er degré</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Enseignant du 2nd degré</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>Enseignant du supérieur</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Puériculteur</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Aide humaine en milieu scolaire</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>Médecin coordonnateur</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Infirmier coordonnateur</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Phoniatre</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Audio phonologue</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Ingénieur en analyse du mouvement</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Psychologue clinicien</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Animateur socio-culturel</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Moniteur d'atelier</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>Enseignant en Activité Physique Adaptée (EAPA)</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>Accompagnant des Élèves en Situation de Handicap (AESH)</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>Pédopsychiatre</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Veilleur de nuit</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>Assistant de soins en gérontologie</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>Aide médico psychologique (AMP)</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>Avéjiste</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Instructeur en locomotion</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Educateur sportif</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Conseiller en insertion professionnelle</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>Coordonnateur et gestionnaire de parcours handicap</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>Neuropédiatre</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>Psychopédagogue</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>Tabacologue</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Addictologue</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>Allergologue</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Cardiologue</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>Chercheur médical</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>Chirurgien digestif</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>Chirurgien général</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>Chirurgien maxillo-facial</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Chirurgien oral</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>Chirurgien orthopédiste</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Chirurgien pédiatrique</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>Chirurgien plastique, plasticien</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>Chirurgien thoracique et cardiaque</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>Chirurgien urologue</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Chirurgien vasculaire</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Dentiste</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>Dermatologue</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>Endocrinologue</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>Gastro-entérologue</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>Généticien médicale</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>Gériatre</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>Gynécologue</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>Gynéco-obstétricien</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Hématologue</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>Infectiologue</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>Infirmier en pratique avancée (IPA)</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>Médecin anesthésiste-réanimateur</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Médecin généraliste</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>Médecin interniste</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Médecin légiste</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Médecin nucléaire</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Médecin rééducateur</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>Médecin vasculaire</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Néphrologue</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>Neurochirurgien</t>
+  </si>
+  <si>
     <t>98</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Uri</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>dateValid</t>
-  </si>
-  <si>
-    <t>date de validité d'un code concept</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>dateMaj</t>
-  </si>
-  <si>
-    <t>Date de mise à jour d'un code concept</t>
-  </si>
-  <si>
-    <t>dateFin</t>
-  </si>
-  <si>
-    <t>Date de fin d'exploitation d'un code concept</t>
-  </si>
-  <si>
-    <t>deprecationDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#deprecationDate</t>
-  </si>
-  <si>
-    <t>Date Concept was deprecated</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#status</t>
-  </si>
-  <si>
-    <t>A property that indicates the status of the concept.</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>retirementDate</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/concept-properties#retirementDate</t>
-  </si>
-  <si>
-    <t>Date Concept was retired</t>
-  </si>
-  <si>
-    <t>Level</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>Art-thérapeute</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>Neuropsychologue</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>Médiateur de santé pair</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>Socio-esthéticien</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Enseignant du 1er degré</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>Enseignant du 2nd degré</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>Enseignant du supérieur</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>Puériculteur</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>Aide humaine en milieu scolaire</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>Médecin coordonnateur</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Infirmier coordonnateur</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Phoniatre</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Audio phonologue</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Ingénieur en analyse du mouvement</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Psychologue clinicien</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>Animateur socio-culturel</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>Moniteur d'atelier</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>Enseignant en Activité Physique Adaptée (EAPA)</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>Accompagnant des Élèves en Situation de Handicap (AESH)</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>Pédopsychiatre</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Veilleur de nuit</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>Assistant de soins en gérontologie</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>Aide médico psychologique (AMP)</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>Avéjiste</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Instructeur en locomotion</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Educateur sportif</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Conseiller en insertion professionnelle</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>Coordonnateur et gestionnaire de parcours handicap</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>Neuropédiatre</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>Psychopédagogue</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>Tabacologue</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>Addictologue</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>Allergologue</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>Cardiologue</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Chercheur médical</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>Chirurgien digestif</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>Chirurgien général</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>Chirurgien maxillo-facial</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>Chirurgien oral</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>Chirurgien orthopédiste</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>Chirurgien pédiatrique</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>Chirurgien plastique, plasticien</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>Chirurgien thoracique et cardiaque</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>Chirurgien urologue</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Chirurgien vasculaire</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Dentiste</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>Dermatologue</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>Endocrinologue</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>Gastro-entérologue</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>Généticien médicale</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>Gériatre</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>Gynécologue</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>Gynéco-obstétricien</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Hématologue</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>Infectiologue</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>Infirmier en pratique avancée (IPA)</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>Médecin anesthésiste-réanimateur</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>Médecin généraliste</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>Médecin interniste</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Médecin légiste</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Médecin nucléaire</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Médecin rééducateur</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>Médecin vasculaire</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Néphrologue</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>Neurochirurgien</t>
-  </si>
-  <si>
     <t>Neurologue</t>
   </si>
   <si>
-    <t>99</t>
-  </si>
-  <si>
     <t>Neuro-psychiatre</t>
   </si>
   <si>
@@ -773,6 +773,12 @@
   </si>
   <si>
     <t>Psychologue du travail</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>Intermédiateur</t>
   </si>
 </sst>
 </file>
@@ -1188,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D99"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1993,10 +1999,10 @@
         <v>58</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>34</v>
+        <v>189</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D67" s="2"/>
     </row>
@@ -2005,7 +2011,7 @@
         <v>58</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>190</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>191</v>
@@ -2383,6 +2389,18 @@
         <v>252</v>
       </c>
       <c r="D99" s="2"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="D100" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
+++ b/www/terminologies/CodeSystem-TRE-R356-ProfessionRessource.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="256">
   <si>
     <t>Property</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>20250710120000</t>
+    <t>20250918120000</t>
   </si>
   <si>
     <t>Name</t>
@@ -64,7 +64,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-10T12:00:00+01:00</t>
+    <t>2025-09-18T12:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>Psychologue du travail</t>
+  </si>
+  <si>
+    <t>Professionnel de psychologie intervenant en santé au travail pour préserver la santé mentale des salariés et améliorer les conditions de travail, au travers de diagnostics, conseils, évaluation des risques psychosociaux et accompagnement des actions collectives ou individuelles, en lien avec le médecin du travail.</t>
   </si>
   <si>
     <t>131</t>
@@ -2388,17 +2391,19 @@
       <c r="C99" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="D99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>253</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
         <v>58</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D100" s="2"/>
     </row>
